--- a/biology/Microbiologie/Methylothermaceae/Methylothermaceae.xlsx
+++ b/biology/Microbiologie/Methylothermaceae/Methylothermaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Methylothermaceae forment une des deux familles de l'ordre Methylococcales. Ce sont des bactéries Gram négatives de la classe des Gammaproteobacteria.
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-L'étymologie de cette famille Methylothermaceae est la suivante : Me.thy’lo.ther.ma’ce.a.e N.L. masc. n. Methylothermus, le genre type de cette famille; L. fem. pl. n. suff. -aceae, suffixe pour définir une famille; N.L. fem. pl. n. Methylothermaceae, la famille des Methylothermus[2],[1].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de cette famille Methylothermaceae est la suivante : Me.thy’lo.ther.ma’ce.a.e N.L. masc. n. Methylothermus, le genre type de cette famille; L. fem. pl. n. suff. -aceae, suffixe pour définir une famille; N.L. fem. pl. n. Methylothermaceae, la famille des Methylothermus,.
 </t>
         </is>
       </c>
@@ -543,9 +560,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon LPSN  (9 novembre 2022)[3], la famille Methylothermaceae comporte 3 genres publiés de manière valide :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon LPSN  (9 novembre 2022), la famille Methylothermaceae comporte 3 genres publiés de manière valide :
 Methylohalobius Heyer et al. 2005
 Methylomarinovum Hirayama et al. 2014
 Methylothermus Hirayama et al. 2019, genre type de la famille</t>
